--- a/Python/hemant/updated_file1.xlsx
+++ b/Python/hemant/updated_file1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,1201 +458,1217 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>72x78-BlueCoconut</t>
+          <t>StarCushionC-16x16-Maroon-2Pc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0CYQBT9MF</t>
+          <t>B0C8NX4YK5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DRR</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>802</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>72x78-PinkFlowerSamePB</t>
+          <t>StarCushionC-16x16-Coffee-2Pc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0CVN6JXYY</t>
+          <t>B0C8NW9HS5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DRR</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>758</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BedSheet-KING-YellowOrangeFlower</t>
+          <t>DiamondCushionC-16x16-Coffee-2Pc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0C78N12Z8</t>
+          <t>B0C8NWC997</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DRR</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>759</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BedSheet-KING-BeigeFlower</t>
+          <t>StarCushionC-16x16-Cream-2Pc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0C7KW5NTJ</t>
+          <t>B0C8NWC7H7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DRR</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>721</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>60x78-BlueArrow</t>
+          <t>CrossCushionC-16x16-Grey-2Pc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0CNNFB57F</t>
+          <t>B0C8NXS5P8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DRR</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>616</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>72x78-SkyBlueFlower</t>
+          <t>DiamondCushionC-16x16-Cream-2Pc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0CYQHDC5L</t>
+          <t>B0C8NTV62Q</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DRR</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>802</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AmbiCushionC-16x16-Beige-2Pc</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0D1S8D63D</t>
+          <t>B0C8NVZTPR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DRR</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>719</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>108-KING-PinkHeart</t>
+          <t>AmbiCushionC-16x16-Coffee-2Pc</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0D1SH8CSQ</t>
+          <t>B0C8NTXW6V</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DRR</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>802</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>108-KING-YellowZigZag</t>
+          <t>StarCushionC-16x16-Beige-2Pc</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B0D1SH8M48</t>
+          <t>B0C8P1D713</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DRR</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>802</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>108-KING-YellowGarden</t>
+          <t>AmbiCushionC-16x16-Maroon-2Pc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B0D1SLD354</t>
+          <t>B0C8NX8TX9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DRR</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>719</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>72x78-SBP-CoffeeBlueBox</t>
+          <t>HC-1-LeavesDesign-Cream-4x5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B0D2PD4HYN</t>
+          <t>B0C6MYT27K</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DRR</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>758</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>108-KING-YellowSmallFlower</t>
+          <t>AmbiCushionC-16x16-Cream-2Pc</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0D3CKLHR9</t>
+          <t>B0C8NR5PCQ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DRR</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>802</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>108-KING-GreyBlueFlower</t>
+          <t>DC-1-BrownSwastikOM-4x7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B0CVFQDK2P</t>
+          <t>B0C66JMYR7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>802</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BedSheet-KING-DarkBlueStars</t>
+          <t>BricksCushionC-16x16-Maroon-5Pc</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B0C7H4JGLM</t>
+          <t>B0C8NW1CXP</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>698</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>72x78-BlueArrow</t>
+          <t>BricksCushionC-16x16-Coffee-5Pc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B0CNNDBGPQ</t>
+          <t>B0C8NS7CZ6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>533</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>108-KING-CoffeeBlueBox</t>
+          <t>CrossCushionC-16x16-Coffee-5Pc</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B0CPCXB8F8</t>
+          <t>B0C8NVBTWS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>665</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AmbiCushionC-16x16-Cream-5Pc</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>B0C78ZGX7K</t>
+          <t>B0C8NWPVZ4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>589</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>108-KING-MaroonCoconut</t>
+          <t>AmbiCushionC-16x16-Coffee-5Pc</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B0CPCWV9J7</t>
+          <t>B0C8NVV4YZ</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>670</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>108-KING-GreyRedBox</t>
+          <t>CrossCushionC-16x16-Grey-5Pc</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B0CPCWMMD2</t>
+          <t>B0C8NV8XHK</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>803</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>108-KING-BlueT</t>
+          <t>DiamondCushionC-16x16-Coffee-5Pc</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B0CPCW5C3M</t>
+          <t>B0C8NVP657</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>662</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>108-KING-CoffeeT</t>
+          <t>PlusCushionC-16x16-Maroon-5Pc</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B0CPCW24Y9</t>
+          <t>B0C8NYGCS7</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>666</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BedSheet-KING-SkyBlueFlowers</t>
+          <t>BricksCushionC-16x16-Grey-5Pc</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B0C7H55BC4</t>
+          <t>B0C8NWGSN5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>670</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>108-KING-BlueCocunut</t>
+          <t>PlusCushionC-16x16-Coffee-5Pc</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B0CPCWGPCK</t>
+          <t>B0C8NWTDPQ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>664</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>108-KING-RedPinkFlowers</t>
+          <t>StarCushionC-16x16-Cream-5Pc</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>B0CTY9JHSS</t>
+          <t>B0C8NSTF96</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>668</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BedSheet-KING-GreenLeaves</t>
+          <t>StarCushionC-16x16-Coffee-5Pc</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>B0CVFQJKCX</t>
+          <t>B0C8NSYJLY</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>721</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>72x78-PinkFlower</t>
+          <t>StarCushionC-16x16-Maroon-5Pc</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>B0CJYCLTF4</t>
+          <t>B0C8NVM47Z</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>682</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BedSheet-KING-PinkFlowers</t>
+          <t>AmbiCushionC-16x16-Grey-5Pc</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B0C7H68GGB</t>
+          <t>B0C8NSZVL3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>667</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bedsheet-KING-PinkFlowers-Self</t>
+          <t>DiamondCushionC-16x16-Cream-5Pc</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>B0C78M7R44</t>
+          <t>B0C8NVZK9G</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PD Shortlisted</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>712</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BedSheet-KING-BeigeGreenSqaures</t>
+          <t>StarCushionC-16x16-Grey-5Pc</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B0D3CK3KPC</t>
+          <t>B0C8NW4WMH</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PD Shortlisted</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>108-KING-BlueSunflower</t>
+          <t>PlusCushionC-16x16-Grey-5Pc</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>B0D3CLTQ5Q</t>
+          <t>B0C8NYPY7L</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PD Shortlisted</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>436</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>108-KING-AquaFlowes</t>
+          <t>DiamondCushionC-16x16-Grey-5Pc</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>B0D9R4649L</t>
+          <t>B0C8NXPKP4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PD Shortlisted</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>450</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>108-KING-RedPurpleRectangle</t>
+          <t>PlusCushionC-16x16-Beige-5Pc</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>B0CTMX6VYT</t>
+          <t>B0C8NYCX4D</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1851</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>108-Duvet-BlueCoconut</t>
+          <t>CrossCushionC-16x16-Maroon-5Pc</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>B0D2PD1779</t>
+          <t>B0C8NTM6FX</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>758</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>72x78-SBP-GreyRedBox</t>
+          <t>AmbiCushionC-16x16-Maroon-5Pc</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>B0C78L1JXM</t>
+          <t>B0C8NVZ654</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>721</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BedSheet-KING-CircleFlowerBrown</t>
+          <t>DiamondCushionC-16x16-Maroon-5Pc</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B0C78N5FSZ</t>
+          <t>B0C8NTD366</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>759</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BedSheet-KING-NavyWhiteGreenLeaf</t>
+          <t>StarCushionC-16x16-Maroon-3Pc</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>B0CYQGFMH1</t>
+          <t>B0C8NS7MJB</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>802</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>72x78-CoffeeBlueBox</t>
+          <t>StarCushionC-16x16-Beige-3Pc</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>B0D14P9L7Y</t>
+          <t>B0C8NXDCWF</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>802</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>72x78-CoffeeT</t>
+          <t>AmbiCushionC-16x16-Grey-3Pc</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>B0CNNBKKLD</t>
+          <t>B0C8NXMY7D</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>630</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>72x78-SkyPeachFlower</t>
+          <t>BricksCushionC-16x16-Grey-3Pc</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>B0C78KT956</t>
+          <t>B0C8NWDW5P</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>759</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BedSheet-KING-TortoiseCircles</t>
+          <t>PlusCushionC-16x16-Beige-3Pc</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>B0CTMWVCQB</t>
+          <t>B0C8P1JBG5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1804</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>72x78-Duvet-BlueArrow</t>
+          <t>AmbiCushionC-16x16-Beige-3Pc</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>B0CT5VXSY1</t>
+          <t>B0C8NXZSV3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>630</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>72x78-NavyWhiteGreenLeaf</t>
+          <t>AmbiCushionC-16x16-Cream-3Pc</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>B0CQMHM3RQ</t>
+          <t>B0C8NVKDD7</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>721</v>
+        <v>474</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BedSheet-KING-GreenJaipuri</t>
+          <t>BricksCushionC-16x16-Maroon-3Pc</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>B0C78NBV5M</t>
+          <t>B0C8NZR4NM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>721</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BedSheet-KING-NavyBlueStripes</t>
+          <t>StarCushionC-16x16-Cream-3Pc</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>B0CNNCF9MM</t>
+          <t>B0C8NWP38R</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>630</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>72x78-BlueMultiFlower</t>
+          <t>BricksCushionC-16x16-Beige-3Pc</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>B0CG4LQCJW</t>
+          <t>B0C8NZFF5N</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>630</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>72x78-GreenLeaves</t>
+          <t>AmbiCushionC-16x16-Coffee-3Pc</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>B0CTMXTJ34</t>
+          <t>B0C8NRYCN3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1139</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DuvetOnly-PinkFlowers</t>
+          <t>DiamondCushionC-16x16-Maroon-3Pc</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>B0CT5T2TVX</t>
+          <t>B0C8NVZ9RF</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>616</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>60x78-NavyWhiteGreenLeaf</t>
+          <t>DiamondCushionC-16x16-Cream-3Pc</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>B0CTMXDJQL</t>
+          <t>B0C8NXMV24</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1851</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>108-Duvet-PinkFlowers</t>
+          <t>CrossCushionC-16x16-Beige-3Pc</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>B0CYQCQ4KK</t>
+          <t>B0C8NVCZKV</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>802</v>
+        <v>474</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>72x78-GreyBlueFlower</t>
+          <t>CrossCushionC-16x16-Grey-3Pc</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B0D6CRY4BZ</t>
+          <t>B0C8NYT27C</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>474</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>72x78-SBP-SkyBlueflower</t>
+          <t>DiamondCushionC-16x16-Beige-3Pc</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>B0CYQBFD8P</t>
+          <t>B0C8NVHS4G</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>802</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>72x78-RedPinkflower</t>
+          <t>42x75-GreyBrownFlower</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>B0CYQ973B2</t>
+          <t>B0CNNCVVQJ</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>802</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>72x78-MaroonCoconut</t>
+          <t>HC-2-NeemPatta-Cream-4x7</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>B0C78P288B</t>
+          <t>B0C6N14PSY</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>759</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BedSheet-KING-PeachYellowFlowers</t>
+          <t>42x75-BlueArrow</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>B0C78M7BC2</t>
+          <t>B0CNND297Y</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>721</v>
+        <v>521</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BedSheet-KING-WhiteBeigeTriangle</t>
+          <t>42x75-BlueMultiFlower</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>B0CVN9NGY9</t>
+          <t>B0CNNCMPSW</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>759</v>
+        <v>521</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>42x75-GreyPatta</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>B0C6FLQFKQ</t>
+          <t>B0CNNDCJ34</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1443</v>
+        <v>521</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1+2-Duvet-BlueHearts-D</t>
+          <t>42x75-GreenLeaves</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>B0CNNCMNMK</t>
+          <t>B0CG4LKFSD</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>630</v>
+        <v>521</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>72x78-PeachFlower</t>
+          <t>42x75-SkyPeachFlower</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>B0C8DNH9PP</t>
+          <t>B0CNNBF9G1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>616</v>
+        <v>521</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>60x78-GreyLeaves</t>
+          <t>42x75-BeigeGreenTriangle</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B0CNNDD4TQ</t>
+          <t>B0C8DLMWJF</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>616</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>60x78-SkyPeachFlower</t>
+          <t>DiamondCushionC-16x16-Beige-5Pc</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>B0CTMW9VRT</t>
+          <t>B0C8NS4SMN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1139</v>
+        <v>569</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DuvetOnly-SkyPeachFlower</t>
+          <t>42x75-GreenSmallFlower</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>B0C8NV5HSF</t>
+          <t>B0D2PDFSDJ</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1662,197 +1678,197 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>StarCushionC-16x16-Beige-5Pc</t>
+          <t>BricksCushionC-16x16-Beige-5Pc</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>B0CNND297Y</t>
+          <t>B0C8NSQ5CK</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>521</v>
+        <v>569</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>42x75-BlueArrow</t>
+          <t>42x75-PinkFlowerSamePB</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>B0C8DKJKY5</t>
+          <t>B0CVMVWR52</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>521</v>
+        <v>569</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>42x75-BlueRectangle</t>
+          <t>42x75-NavyWhiteGreenLeaf</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>B0C6FPQFTR</t>
+          <t>B0CT5XG6Q2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1082</v>
+        <v>569</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DuvetOnly-BlueRectangle-D</t>
+          <t>StarCushionC-16x16-Beige-5Pc</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>B0C8NTD366</t>
+          <t>B0C8NV5HSF</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>450</v>
+        <v>569</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DiamondCushionC-16x16-Maroon-5Pc</t>
+          <t>AmbiCushionC-16x16-Beige-5Pc</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>B0C8NVV4YZ</t>
+          <t>B0C8NV4SLX</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>450</v>
+        <v>569</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AmbiCushionC-16x16-Coffee-5Pc</t>
+          <t>CrossCushionC-16x16-Beige-5Pc</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>B0C78V1XBJ</t>
+          <t>B0C8NZS4WB</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>721</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BedSheet-KING-GreyCircles</t>
+          <t>CUR-1-blackoutSilk-4x5-Fawn</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>B0D2PB7XTB</t>
+          <t>B0CB4N3SFD</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>758</v>
+        <v>569</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>72x78-SBP-RedPinkFlower</t>
+          <t>HC-2-CrissCross-Cream-4x9</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>B0C66CZWLY</t>
+          <t>B0C6MYZZLT</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>676</v>
+        <v>569</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DC-2-ShivParivar-4x5</t>
+          <t>60x78-SkyPeachFlower</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>B0D2PDCSV3</t>
+          <t>B0CNNDD4TQ</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>630</v>
+        <v>603</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>72x78-GreenSmallFlower</t>
+          <t>60x78-NavyWhiteGreenLeaf</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>B0CV4CB3NT</t>
+          <t>B0CT5T2TVX</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -1862,17 +1878,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>cushion-velvetBox-coffee-16x16</t>
+          <t>60x78-GreenLeaves</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>B0C8DN2P24</t>
+          <t>B0CG4KMFBN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1882,17 +1898,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>60x78-Multibox</t>
+          <t>60x78-BlueArrow</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>B0CV4DPBRN</t>
+          <t>B0CNNFB57F</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1902,17 +1918,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>cushion-velvetBox-maroon-16x16</t>
+          <t>60x78-GreyPatta</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>B0CG4KMFBN</t>
+          <t>B0CNNDD4V6</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1922,1079 +1938,2609 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>60x78-GreenLeaves</t>
+          <t>60x78-BlueMultiFlower</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>B0C8NSQ5CK</t>
+          <t>B0CNNDDVPZ</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>569</v>
+        <v>603</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BricksCushionC-16x16-Beige-5Pc</t>
+          <t>60x78-BeigeGreenTriangle</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>B0C78M86PK</t>
+          <t>B0C8DNZG5H</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>759</v>
+        <v>549</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BedSheet-KING-BrownFlowers</t>
+          <t>72x78-NavyWhiteGreenLeaf</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>B0C78LR5WY</t>
+          <t>B0CT5VXSY1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>759</v>
+        <v>630</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BedSheet-KING-WhitePinkFlowers</t>
+          <t>72x78-BlueArrow</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>B0D2PCXWDX</t>
+          <t>B0CNNDBGPQ</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>630</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>72x78-SBP-BlueCoconut</t>
+          <t>72x78-GreenLeaves</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>B0D14Q6FDV</t>
+          <t>B0CG4LQCJW</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>854</v>
+        <v>630</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>72x78-BlueT</t>
+          <t>72x78-PeachFlower</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>B0CTMXFNJZ</t>
+          <t>B0CNNCMNMK</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1851</v>
+        <v>630</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>108-Duvet-CoffeeBlueBox</t>
+          <t>72x78-SkyPeachFlower</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>B0CVMVWR52</t>
+          <t>B0CNNBKKLD</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>569</v>
+        <v>630</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>42x75-PinkFlowerSamePB</t>
+          <t>72x78-GreyPatta</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>B0CYQD1PH5</t>
+          <t>B0CNNBCM52</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Additional </t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>802</v>
+        <v>630</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>72x78-GreyRedBox</t>
+          <t>72x78-GreenSmallFlower</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>B0CNNDD4V6</t>
+          <t>B0D2PDCSV3</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>616</v>
+        <v>630</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>60x78-GreyPatta</t>
+          <t>72x78-BlueMultiFlower</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>B0CNNDDVPZ</t>
+          <t>B0CNNCF9MM</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>616</v>
+        <v>630</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>60x78-BlueMultiFlower</t>
+          <t>72x78-BlueHearts</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>B0CTMXGLLY</t>
+          <t>B0C8DNR499</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1851</v>
+        <v>599</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>108-Duvet-MaroonCoconut</t>
+          <t>72x78-GreyTriangle</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>B0CH3MQY2C</t>
+          <t>B0C8DLF874</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1804</v>
+        <v>599</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>72x78-Duvet-GreenLeaves-D</t>
+          <t>72x78-NavyBox</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>B0CTMWC9SZ</t>
+          <t>B0C8DM5YWV</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1519</v>
+        <v>599</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1+2-Duvet-SkyPeachFlower</t>
+          <t>72x78-SBP-SkyBlueflower</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>B0C78V1JW1</t>
+          <t>B0D6CRY4BZ</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>759</v>
+        <v>645</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BedSheet-KING-CoffeeHoneyCom</t>
+          <t>72x78-GreyLeaves</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>B0CDCND54K</t>
+          <t>B0C8DMXW68</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>759</v>
+        <v>599</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BedSheet-KING-MultiRectangle</t>
+          <t>72x78-BeigeGreenTriangle</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>B0C6FP8DHB</t>
+          <t>B0C8DN6PYF</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1713</v>
+        <v>599</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>72x78-Duvet-GreyLeaves-D</t>
+          <t>72x78-CircleFlowerBrown</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>B0CG4LKFSD</t>
+          <t>B0CJYBTD2N</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>521</v>
+        <v>664</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>42x75-GreenLeaves</t>
+          <t>108-KING-RedPurpleRectangle</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>B0CNNCMPSW</t>
+          <t>B0D9R4649L</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>521</v>
+        <v>719</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>42x75-BlueMultiFlower</t>
+          <t>BedSheet-KING-GreenLeaves</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>B0C6FMJKLY</t>
+          <t>B0CVFQJKCX</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1804</v>
+        <v>721</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>72x78-Duvet-BeigeGreenTriangle-D</t>
+          <t>BedSheet-KING-RedSmallFlower</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>B0CTMTS4VH</t>
+          <t>B0CKLJYBKK</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1804</v>
+        <v>721</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>72x78-Duvet-BlueMultiFlower</t>
+          <t>BedSheet-KING-CircleFlowerBrown</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>B0C6FM53YZ</t>
+          <t>B0C78L1JXM</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>72x78-Duvet-BlueWhiteLines-D</t>
+          <t>BedSheet-KING-BeigeVaseFlower</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>B0C6FPCD7R</t>
+          <t>B0CKLJV422</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>72x78-Duvet-GreenCenterFlower-D</t>
+          <t>BedSheet-KING-WhiteBeigeTriangle</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>B0C6FNHW7G</t>
+          <t>B0C78M7BC2</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>72x78-Duvet-BlueHearts-D</t>
+          <t>BedSheet-KING-BrownMultiPatch</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>B0CTMVWT7J</t>
+          <t>B0C7964S3L</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1804</v>
+        <v>721</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>72x78-Duvet-SkyPeachFlower</t>
+          <t>BedSheet-KING-NavyBlueStripes</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>B0C6FP7PGD</t>
+          <t>B0C78NBV5M</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1713</v>
+        <v>721</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>72x78-Duvet-YellowGreenStripes-D</t>
+          <t>PlusCushionC-24x24-Maroon-2Pc</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>B0C6FKRYQH</t>
+          <t>B0C8NYNH4B</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1713</v>
+        <v>751</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>72x78-Duvet-BlueRectangle-D</t>
+          <t>StarCushionC-24x24-Maroon-2Pc</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>B0CKLJYBKK</t>
+          <t>B0C8NSW96Q</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>721</v>
+        <v>751</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BedSheet-KING-RedSmallFlower</t>
+          <t>PlusCushionC-24x24-Coffee-2Pc</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>B0CKLJV422</t>
+          <t>B0C8NVBQZY</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>721</v>
+        <v>751</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BedSheet-KING-BeigeVaseFlower</t>
+          <t>StarCushionC-24x24-Grey-2Pc</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>B0D2PDFSDJ</t>
+          <t>B0C8NTM2W2</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>569</v>
+        <v>751</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>42x75-GreenSmallFlower</t>
+          <t>72x78-PinkFlowerSamePB</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>B0CT5XG6Q2</t>
+          <t>B0CVN6JXYY</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>569</v>
+        <v>758</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>42x75-NavyWhiteGreenLeaf</t>
+          <t>72x78-SBP-RedPinkFlower</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>B0CNNBF9G1</t>
+          <t>B0D2PB7XTB</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>521</v>
+        <v>758</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>42x75-SkyPeachFlower</t>
+          <t>BedSheet-KING-YellowOrangeFlower</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>B0CTMWF1SS</t>
+          <t>B0C78N12Z8</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1519</v>
+        <v>759</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1+2-Duvet-BlueArrow</t>
+          <t>BedSheet-KING-BrownFlowers</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>B0C6FQ628Q</t>
+          <t>B0C78M86PK</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1519</v>
+        <v>759</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1+2-Duvet-GreyLeaves-D</t>
+          <t>DiamondCushionC-24x24-Grey-2Pc</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>B0CTMTYS2H</t>
+          <t>B0C8NXHPXV</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1804</v>
+        <v>759</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>72x78-Duvet-CircleFlowerBrown</t>
+          <t>BedSheet-KING-BeigeGreenSqaures</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>B0CTMW8CQQ</t>
+          <t>B0C78M7R44</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1519</v>
+        <v>759</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1+2-Duvet-BlueMultiFlower</t>
+          <t>CrossCushionC-24x24-Beige-2Pc</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>B0C6FLL7YD</t>
+          <t>B0C8NXSZ59</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1713</v>
+        <v>759</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>72x78-Duvet-GreyTriangle-D</t>
+          <t>StarCushionC-24x24-Beige-2Pc</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>B0CTMWC95L</t>
+          <t>B0C8NTG7TZ</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1519</v>
+        <v>759</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1+2-Duvet-CircleFlowerBrown</t>
+          <t>BedSheet-KING-NavyWhiteGreenLeaf</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>B0C6FMF68D</t>
+          <t>B0C78N5FSZ</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1713</v>
+        <v>759</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>72x78-Duvet-PinkCenterFlower-D</t>
-        </is>
-      </c>
+      <c r="A114" t="inlineStr"/>
       <c r="B114" t="inlineStr">
         <is>
-          <t>B0CNNBX68J</t>
+          <t>B0C78LR5WY</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>521</v>
+        <v>759</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>42x75-PeachFlower</t>
+          <t>AmbiCushionC-24x24-Beige-2Pc</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>B0CTMTMM3F</t>
+          <t>B0C8NVVRZS</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1804</v>
+        <v>759</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>72x78-Duvet-NavyWhiteGreenLeaf</t>
+          <t>AmbiCushionC-24x24-Coffee-2Pc</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>B0C6FNQJ67</t>
+          <t>B0C8NRLXBW</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1443</v>
+        <v>759</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1+2-Duvet-GreyTriangle-D</t>
+          <t>BricksCushionC-24x24-Beige-2Pc</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>B0C6FM8VFX</t>
+          <t>B0C8NXDM98</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1443</v>
+        <v>759</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1+2-Duvet-NavyBox-D</t>
+          <t>StarCushionC-24x24-Coffee-2Pc</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>B0C6FNJPL1</t>
+          <t>B0C8NTPPK2</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1443</v>
+        <v>759</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1+2-Duvet-BlueRectangle-D</t>
+          <t>BedSheet-KING-MultiRectangle</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>B0C6FPLMXB</t>
+          <t>B0CDCND54K</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1713</v>
+        <v>759</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>72x78-Duvet-NavyBox-D</t>
+          <t>BedSheet-KING-TortoiseCircles</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>B0C6FPBBLB</t>
+          <t>B0C78KT956</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1443</v>
+        <v>759</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1+2-Duvet-Multibox-D</t>
+          <t>BedSheet-KING-CoffeeHoneyCom</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>B0CNNDCJ34</t>
+          <t>B0C78V1JW1</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>521</v>
+        <v>759</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>42x75-GreyPatta</t>
+          <t>60x78-PinkFlowerSamePB</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>B0CVH9N7S8</t>
+          <t>B0CVN9NGY9</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1519</v>
+        <v>759</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1+2-Duvet-BeigeGreenTriangle</t>
+          <t>BedSheet-KING-PeachYellowFlowers</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>B0C6FMR65N</t>
+          <t>B0C78P288B</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1443</v>
+        <v>759</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1+2-Duvet-PinkCenterFlower-D</t>
+          <t>108x108-satin-darkGrey</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>B0CTMTWR52</t>
+          <t>B0C96PX8M6</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1519</v>
+        <v>759</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1+2-Duvet-NavyWhiteGreenLeaf</t>
+          <t>PlusCushionC-24x24-Beige-2Pc</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>B0C6FN1FM1</t>
+          <t>B0C8NY146W</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1443</v>
+        <v>759</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1+2-Duvet-GreenCenterFlower-D</t>
+          <t>DiamondCushionC-24x24-Beige-2Pc</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>B0C6FKWVCS</t>
+          <t>B0C8NYB56S</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1443</v>
+        <v>759</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1+2-Duvet-YellowGreenStripes-D</t>
+          <t>DC-2-Animals-4x7</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>B0C6FKTHVS</t>
+          <t>B0C69TJV64</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>2. DB</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1443</v>
+        <v>766</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1+2-Duvet-BlueWhiteLines-D</t>
+          <t>108-KING-PinkHeart</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>B0CH3NWJV4</t>
+          <t>B0D1SH8CSQ</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1519</v>
+        <v>802</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1+2-Duvet-GreenLeaves-D</t>
+          <t>72x78-PinkFlower</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>B0C6FM8Y7B</t>
+          <t>B0CJYCLTF4</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Deal Bank</t>
+          <t>1. ML</t>
         </is>
       </c>
       <c r="D129" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>72x78-CoffeeBlueBox</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>B0CYQGFMH1</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>108-KING-MaroonCoconut</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>B0CPCWV9J7</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>108-KING-RedPinkFlowers</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>B0CTY9JHSS</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>BedSheet-KING-PinkFlowers</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>B0C7H68GGB</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Bedsheet-KING-PinkFlowers-Self</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>B0CYQHDC5L</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>72x78-SkyBlueFlower</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>B0CPCWGPCK</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>108-KING-BlueCocunut</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>B0CYQBT9MF</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>72x78-BlueCoconut</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>B0D14P9L7Y</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>72x78-CoffeeT</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>B0D1SH8M48</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>108-KING-YellowZigZag</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>B0CPCWMMD2</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>108-KING-GreyRedBox</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>B0CYQBFD8P</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>72x78-RedPinkflower</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>B0CPCXB8F8</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>108-KING-CoffeeBlueBox</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>B0C7H55BC4</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>BedSheet-KING-SkyBlueFlowers</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>B0CYQ973B2</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>72x78-MaroonCoconut</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>B0CPCW5C3M</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>108-KING-BlueT</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>B0CYQD1PH5</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>72x78-GreyRedBox</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>B0D1S8D63D</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>108-KING-CoffeeStar</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>B0C7H4JGLM</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>BedSheet-KING-DarkBlueStars</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>B0D1SLD354</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>108-KING-YellowGarden</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>B0D3CK3KPC</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>108-KING-BlueSunflower</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>B0CPCW24Y9</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>108-KING-CoffeeT</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>B0D3CKLHR9</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>B0CVFQDK2P</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>108-KING-GreyBlueFlower</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>B0C8NWL1WN</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>CrossCushionC-24x24-Maroon-3Pc</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>B0C8NWZRKN</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>BricksCushionC-24x24-Grey-3Pc</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>B0C8NVGXGV</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>CrossCushionC-24x24-Coffee-3Pc</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>B0C8NSQS3Y</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>CrossCushionC-24x24-Grey-3Pc</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>B0C8NSSJRQ</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>CrossCushionC-24x24-Beige-3Pc</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>B0C8NRC6BJ</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>AmbiCushionC-24x24-Beige-3Pc</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>B0C8NVR69P</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>BricksCushionC-24x24-Coffee-3Pc</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>B0D14Q6FDV</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>72x78-BlueT</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>B0C8NXPLKK</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>AmbiCushionC-24x24-Maroon-3Pc</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>B0D3CLTQ5Q</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>108-KING-AquaFlowes</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>B0C8NXJG6W</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>BricksCushionC-24x24-Maroon-3Pc</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>B0C8P3FMSP</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>PlusCushionC-24x24-Beige-3Pc</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>B0C8NWSLW5</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>PlusCushionC-24x24-Maroon-3Pc</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>B0C8NWJVS8</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>DiamondCushionC-24x24-Maroon-3Pc</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>B0C8NYGXQL</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>BricksCushionC-24x24-Beige-3Pc</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>B0C8NR5JFQ</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>DiamondCushionC-24x24-Beige-3Pc</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>B0C8NV89T9</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>AmbiCushionC-24x24-Coffee-3Pc</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>B0C8NVLQ7F</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>StarCushionC-24x24-Maroon-3Pc</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>B0C8NTPBLH</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>StarCushionC-24x24-Beige-3Pc</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>B0C66C5T83</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>DC-2-RedMata-4x9</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>B0C8NVTZ3F</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>PlusCushionC-24x24-Beige-5Pc</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>B0C8NW4WGN</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>CrossCushionC-24x24-Grey-5Pc</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>B0C8NTL6SZ</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>AmbiCushionC-24x24-Beige-5Pc</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>B0C8NRG9QG</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>CrossCushionC-24x24-Maroon-5Pc</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>B0C8NTTNTC</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>DiamondCushionC-24x24-Maroon-5Pc</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>B0C8NXJSX7</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>StarCushionC-24x24-Beige-5Pc</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>B0C8NX2G85</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>PlusCushionC-24x24-Coffee-5Pc</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>B0C8NW2329</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>BricksCushionC-24x24-Beige-5Pc</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>B0C8NWCSKX</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>AmbiCushionC-24x24-Grey-5Pc</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>B0C8NZGDTY</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>BricksCushionC-24x24-Grey-5Pc</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>B0C8NTJG7B</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>DiamondCushionC-24x24-Grey-5Pc</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>B0C8NX1BFX</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>CrossCushionC-24x24-Beige-5Pc</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>B0C8NRS6LD</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>StarCushionC-24x24-Grey-5Pc</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>B0C8NVP757</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>StarCushionC-24x24-Coffee-5Pc</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>B0C8NVC1LV</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>AmbiCushionC-24x24-Maroon-5Pc</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>B0C8NXZ1CC</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>PlusCushionC-24x24-Maroon-5Pc</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>B0C8NW8RJ2</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>DiamondCushionC-24x24-Coffee-5Pc</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>B0C8NYLG6M</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>BricksCushionC-24x24-Coffee-5Pc</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>B0C8NT983V</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>StarCushionC-24x24-Maroon-5Pc</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>B0C8NV2ZTZ</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>DiamondCushionC-24x24-Beige-5Pc</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>B0C8NVR8HF</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>AmbiCushionC-24x24-Coffee-5Pc</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>B0C8NW57T4</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>PlusCushionC-24x24-Grey-5Pc</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>B0C8NTFKBC</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>BricksCushionC-24x24-Maroon-5Pc</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>B0CTMXTJ34</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>DuvetOnly-PinkFlowers</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>B0CTMW8CQQ</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>1+2-Duvet-BlueMultiFlower</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>B0C6FNHW7G</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
         <v>1713</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>72x78-Duvet-BlueHearts-D</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>B0CTMWVCQB</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>72x78-Duvet-BlueArrow</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>B0C6FMJKLY</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr"/>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>B0CH3MQY2C</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>72x78-Duvet-GreenLeaves-D</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>B0CTMX6VYT</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>108-Duvet-BlueCoconut</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>B0CTMXGLLY</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>1. ML</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>108-Duvet-MaroonCoconut</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>B0CTMXDJQL</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>108-Duvet-PinkFlowers</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>B0CTMXFNJZ</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>108-Duvet-CoffeeBlueBox</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>B0D2PCXWDX</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2. DB</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Python/hemant/updated_file1.xlsx
+++ b/Python/hemant/updated_file1.xlsx
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>569</v>
+        <v>547</v>
       </c>
     </row>
     <row r="63">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>569</v>
+        <v>547</v>
       </c>
     </row>
     <row r="65">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>569</v>
+        <v>547</v>
       </c>
     </row>
     <row r="66">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>569</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>569</v>
+        <v>474</v>
       </c>
     </row>
     <row r="68">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>616</v>
+        <v>603</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>616</v>
+        <v>603</v>
       </c>
     </row>
     <row r="74">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>616</v>
+        <v>603</v>
       </c>
     </row>
     <row r="76">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>630</v>
+        <v>599</v>
       </c>
     </row>
     <row r="80">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="95">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="96">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="97">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="98">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="99">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="100">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="101">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>759</v>
+        <v>737</v>
       </c>
     </row>
     <row r="108">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>759</v>
+        <v>719</v>
       </c>
     </row>
     <row r="109">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>759</v>
+        <v>719</v>
       </c>
     </row>
     <row r="111">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>759</v>
+        <v>719</v>
       </c>
     </row>
     <row r="114">
@@ -2708,7 +2708,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>759</v>
+        <v>719</v>
       </c>
     </row>
     <row r="115">
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>759</v>
+        <v>719</v>
       </c>
     </row>
     <row r="120">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>759</v>
+        <v>719</v>
       </c>
     </row>
     <row r="121">
@@ -2848,7 +2848,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>759</v>
+        <v>719</v>
       </c>
     </row>
     <row r="122">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>759</v>
+        <v>743</v>
       </c>
     </row>
     <row r="123">
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>802</v>
+        <v>749</v>
       </c>
     </row>
     <row r="132">
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>802</v>
+        <v>749</v>
       </c>
     </row>
     <row r="133">
@@ -3088,13 +3088,13 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>802</v>
+        <v>749</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Bedsheet-KING-PinkFlowers-Self</t>
+          <t>72x78-SkyBlueFlower</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3114,7 +3114,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>72x78-SkyBlueFlower</t>
+          <t>108-KING-BlueCocunut</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3128,13 +3128,13 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>802</v>
+        <v>765</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>108-KING-BlueCocunut</t>
+          <t>72x78-BlueCoconut</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3154,7 +3154,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>72x78-BlueCoconut</t>
+          <t>72x78-CoffeeT</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3174,7 +3174,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>72x78-CoffeeT</t>
+          <t>108-KING-YellowZigZag</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3194,7 +3194,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>108-KING-YellowZigZag</t>
+          <t>108-KING-GreyRedBox</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3214,7 +3214,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>108-KING-GreyRedBox</t>
+          <t>72x78-RedPinkflower</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3234,7 +3234,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>72x78-RedPinkflower</t>
+          <t>108-KING-CoffeeBlueBox</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3248,13 +3248,13 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>802</v>
+        <v>765</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>108-KING-CoffeeBlueBox</t>
+          <t>BedSheet-KING-SkyBlueFlowers</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3268,13 +3268,13 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>802</v>
+        <v>749</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BedSheet-KING-SkyBlueFlowers</t>
+          <t>72x78-MaroonCoconut</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3294,7 +3294,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>72x78-MaroonCoconut</t>
+          <t>108-KING-BlueT</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3308,13 +3308,13 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>802</v>
+        <v>765</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>108-KING-BlueT</t>
+          <t>72x78-GreyRedBox</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3334,7 +3334,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>72x78-GreyRedBox</t>
+          <t>108-KING-CoffeeStar</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3354,7 +3354,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>108-KING-CoffeeStar</t>
+          <t>BedSheet-KING-DarkBlueStars</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3374,7 +3374,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BedSheet-KING-DarkBlueStars</t>
+          <t>108-KING-YellowGarden</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3394,7 +3394,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>108-KING-YellowGarden</t>
+          <t>108-KING-BlueSunflower</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3414,7 +3414,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>108-KING-BlueSunflower</t>
+          <t>108-KING-CoffeeT</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3428,15 +3428,11 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>802</v>
+        <v>765</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>108-KING-CoffeeT</t>
-        </is>
-      </c>
+      <c r="A151" t="inlineStr"/>
       <c r="B151" t="inlineStr">
         <is>
           <t>B0D3CKLHR9</t>
@@ -3452,7 +3448,11 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr"/>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>108-KING-GreyBlueFlower</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>B0CVFQDK2P</t>
@@ -3470,7 +3470,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>108-KING-GreyBlueFlower</t>
+          <t>CrossCushionC-24x24-Maroon-3Pc</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3490,7 +3490,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>CrossCushionC-24x24-Maroon-3Pc</t>
+          <t>BricksCushionC-24x24-Grey-3Pc</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3510,7 +3510,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BricksCushionC-24x24-Grey-3Pc</t>
+          <t>CrossCushionC-24x24-Coffee-3Pc</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3530,7 +3530,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CrossCushionC-24x24-Coffee-3Pc</t>
+          <t>CrossCushionC-24x24-Grey-3Pc</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3550,7 +3550,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>CrossCushionC-24x24-Grey-3Pc</t>
+          <t>CrossCushionC-24x24-Beige-3Pc</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3570,7 +3570,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>CrossCushionC-24x24-Beige-3Pc</t>
+          <t>AmbiCushionC-24x24-Beige-3Pc</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3590,7 +3590,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>AmbiCushionC-24x24-Beige-3Pc</t>
+          <t>BricksCushionC-24x24-Coffee-3Pc</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3610,7 +3610,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BricksCushionC-24x24-Coffee-3Pc</t>
+          <t>72x78-BlueT</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3624,13 +3624,13 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>854</v>
+        <v>802</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>72x78-BlueT</t>
+          <t>AmbiCushionC-24x24-Maroon-3Pc</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3650,7 +3650,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>AmbiCushionC-24x24-Maroon-3Pc</t>
+          <t>108-KING-AquaFlowes</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>836</v>
+        <v>809</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>108-KING-AquaFlowes</t>
+          <t>BricksCushionC-24x24-Maroon-3Pc</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3690,7 +3690,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BricksCushionC-24x24-Maroon-3Pc</t>
+          <t>PlusCushionC-24x24-Beige-3Pc</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3710,7 +3710,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PlusCushionC-24x24-Beige-3Pc</t>
+          <t>PlusCushionC-24x24-Maroon-3Pc</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3730,7 +3730,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PlusCushionC-24x24-Maroon-3Pc</t>
+          <t>DiamondCushionC-24x24-Maroon-3Pc</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -3750,7 +3750,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>DiamondCushionC-24x24-Maroon-3Pc</t>
+          <t>BricksCushionC-24x24-Beige-3Pc</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3770,7 +3770,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BricksCushionC-24x24-Beige-3Pc</t>
+          <t>DiamondCushionC-24x24-Beige-3Pc</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -3790,7 +3790,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>DiamondCushionC-24x24-Beige-3Pc</t>
+          <t>AmbiCushionC-24x24-Coffee-3Pc</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -3810,7 +3810,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>AmbiCushionC-24x24-Coffee-3Pc</t>
+          <t>StarCushionC-24x24-Maroon-3Pc</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -3830,7 +3830,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>StarCushionC-24x24-Maroon-3Pc</t>
+          <t>StarCushionC-24x24-Beige-3Pc</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3850,7 +3850,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>StarCushionC-24x24-Beige-3Pc</t>
+          <t>DC-2-RedMata-4x9</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3870,7 +3870,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>DC-2-RedMata-4x9</t>
+          <t>PlusCushionC-24x24-Beige-5Pc</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3890,7 +3890,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>PlusCushionC-24x24-Beige-5Pc</t>
+          <t>CrossCushionC-24x24-Grey-5Pc</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3904,13 +3904,13 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CrossCushionC-24x24-Grey-5Pc</t>
+          <t>AmbiCushionC-24x24-Beige-5Pc</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3930,7 +3930,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>AmbiCushionC-24x24-Beige-5Pc</t>
+          <t>CrossCushionC-24x24-Maroon-5Pc</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3950,7 +3950,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CrossCushionC-24x24-Maroon-5Pc</t>
+          <t>DiamondCushionC-24x24-Maroon-5Pc</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3970,7 +3970,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>DiamondCushionC-24x24-Maroon-5Pc</t>
+          <t>StarCushionC-24x24-Beige-5Pc</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3984,13 +3984,13 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>StarCushionC-24x24-Beige-5Pc</t>
+          <t>PlusCushionC-24x24-Coffee-5Pc</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4010,7 +4010,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>PlusCushionC-24x24-Coffee-5Pc</t>
+          <t>BricksCushionC-24x24-Beige-5Pc</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4024,13 +4024,13 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>BricksCushionC-24x24-Beige-5Pc</t>
+          <t>AmbiCushionC-24x24-Grey-5Pc</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4044,13 +4044,13 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>AmbiCushionC-24x24-Grey-5Pc</t>
+          <t>BricksCushionC-24x24-Grey-5Pc</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4064,13 +4064,13 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>BricksCushionC-24x24-Grey-5Pc</t>
+          <t>DiamondCushionC-24x24-Grey-5Pc</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4090,7 +4090,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>DiamondCushionC-24x24-Grey-5Pc</t>
+          <t>CrossCushionC-24x24-Beige-5Pc</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4104,13 +4104,13 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>CrossCushionC-24x24-Beige-5Pc</t>
+          <t>StarCushionC-24x24-Grey-5Pc</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4130,7 +4130,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>StarCushionC-24x24-Grey-5Pc</t>
+          <t>StarCushionC-24x24-Coffee-5Pc</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4144,13 +4144,13 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>StarCushionC-24x24-Coffee-5Pc</t>
+          <t>AmbiCushionC-24x24-Maroon-5Pc</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4170,7 +4170,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>AmbiCushionC-24x24-Maroon-5Pc</t>
+          <t>PlusCushionC-24x24-Maroon-5Pc</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4184,13 +4184,13 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>PlusCushionC-24x24-Maroon-5Pc</t>
+          <t>DiamondCushionC-24x24-Coffee-5Pc</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4204,13 +4204,13 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>DiamondCushionC-24x24-Coffee-5Pc</t>
+          <t>BricksCushionC-24x24-Coffee-5Pc</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4230,7 +4230,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>BricksCushionC-24x24-Coffee-5Pc</t>
+          <t>StarCushionC-24x24-Maroon-5Pc</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4244,13 +4244,13 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>StarCushionC-24x24-Maroon-5Pc</t>
+          <t>DiamondCushionC-24x24-Beige-5Pc</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>DiamondCushionC-24x24-Beige-5Pc</t>
+          <t>AmbiCushionC-24x24-Coffee-5Pc</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4284,13 +4284,13 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>AmbiCushionC-24x24-Coffee-5Pc</t>
+          <t>PlusCushionC-24x24-Grey-5Pc</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4310,7 +4310,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>PlusCushionC-24x24-Grey-5Pc</t>
+          <t>BricksCushionC-24x24-Maroon-5Pc</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4324,13 +4324,13 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1082</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>BricksCushionC-24x24-Maroon-5Pc</t>
+          <t>DuvetOnly-PinkFlowers</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4344,13 +4344,13 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1139</v>
+        <v>999</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>DuvetOnly-PinkFlowers</t>
+          <t>1+2-Duvet-BlueMultiFlower</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4364,13 +4364,13 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1519</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1+2-Duvet-BlueMultiFlower</t>
+          <t>72x78-Duvet-BlueHearts-D</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4390,7 +4390,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>72x78-Duvet-BlueHearts-D</t>
+          <t>72x78-Duvet-BlueArrow</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4404,15 +4404,11 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1804</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>72x78-Duvet-BlueArrow</t>
-        </is>
-      </c>
+      <c r="A200" t="inlineStr"/>
       <c r="B200" t="inlineStr">
         <is>
           <t>B0C6FMJKLY</t>
@@ -4424,11 +4420,15 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1804</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr"/>
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>72x78-Duvet-GreenLeaves-D</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>B0CH3MQY2C</t>
@@ -4446,7 +4446,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>72x78-Duvet-GreenLeaves-D</t>
+          <t>108-Duvet-BlueCoconut</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4460,13 +4460,13 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1851</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>108-Duvet-BlueCoconut</t>
+          <t>108-Duvet-MaroonCoconut</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4480,13 +4480,13 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1851</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>108-Duvet-MaroonCoconut</t>
+          <t>108-Duvet-PinkFlowers</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4500,13 +4500,13 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1851</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>108-Duvet-PinkFlowers</t>
+          <t>108-Duvet-CoffeeBlueBox</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4526,7 +4526,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>108-Duvet-CoffeeBlueBox</t>
+          <t>72x78-SBP-BlueCoconut</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
